--- a/BackTest/2019-10-26 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-26 BackTest PIVX.xlsx
@@ -4966,14 +4966,20 @@
         <v>266.8</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>268</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,14 +5007,20 @@
         <v>267.2</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>269</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +5048,20 @@
         <v>267.4</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>268</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +5089,20 @@
         <v>267.8</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>267</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +5130,20 @@
         <v>268</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>267</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +5171,20 @@
         <v>267.4</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>269</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5219,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5258,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5297,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5336,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5375,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5414,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5453,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5492,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5531,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5570,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5609,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5648,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5687,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5726,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5765,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5804,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5843,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5882,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5921,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5960,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +5999,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6038,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6077,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6116,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6155,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6194,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6233,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6272,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6311,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6350,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6389,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6428,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6467,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6506,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6545,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6584,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6623,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6662,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6701,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6740,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6779,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6818,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6857,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6896,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6935,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6974,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7013,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7052,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7091,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7130,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7169,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7208,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7247,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7286,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7325,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7364,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7403,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7442,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7481,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7520,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7559,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7598,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7637,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7676,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7715,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7754,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7793,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7832,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7871,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7910,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7949,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +7988,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8027,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8066,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8105,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8144,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8183,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8222,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8261,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8300,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8339,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8378,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8417,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8456,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8495,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8534,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8573,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8612,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8651,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8294,11 +8686,15 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8329,11 +8725,15 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8364,11 +8764,15 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8807,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8434,14 +8842,16 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8469,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -8889,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -8924,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -16446,20 +16856,14 @@
         <v>263.4</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>257</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16487,20 +16891,14 @@
         <v>262</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>259</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16528,20 +16926,14 @@
         <v>261.6</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>258</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16569,20 +16961,14 @@
         <v>259.4</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>258</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16610,20 +16996,14 @@
         <v>257.6</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>256</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-26 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>28791.02883541</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>32127.77113541</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>261</v>
@@ -521,7 +521,7 @@
         <v>27011.69073541</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>264</v>
@@ -562,7 +562,7 @@
         <v>27011.69073541</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>262</v>
@@ -603,7 +603,7 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>262</v>
@@ -640,7 +640,7 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>265</v>
@@ -681,7 +681,7 @@
         <v>35586.31143541</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>265</v>
@@ -722,7 +722,7 @@
         <v>35586.31143541</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>266</v>
@@ -759,7 +759,7 @@
         <v>35586.31143541</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>266</v>
@@ -800,7 +800,7 @@
         <v>35586.31143541</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>266</v>
@@ -841,7 +841,7 @@
         <v>40207.94233541</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>266</v>
@@ -882,9 +882,11 @@
         <v>53464.01903541</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>267</v>
+      </c>
       <c r="J13" t="n">
         <v>266</v>
       </c>
@@ -921,9 +923,11 @@
         <v>60219.46503541</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>270</v>
+      </c>
       <c r="J14" t="n">
         <v>266</v>
       </c>
@@ -960,9 +964,11 @@
         <v>64243.32908813</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>272</v>
+      </c>
       <c r="J15" t="n">
         <v>266</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>56882.57553540999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
@@ -1155,7 +1161,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1196,7 +1202,9 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>271</v>
+      </c>
       <c r="J21" t="n">
         <v>266</v>
       </c>
@@ -1235,7 +1243,9 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>271</v>
+      </c>
       <c r="J22" t="n">
         <v>266</v>
       </c>
@@ -1272,7 +1282,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
@@ -1311,7 +1321,7 @@
         <v>33414.02463540999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -1350,7 +1360,7 @@
         <v>33415.02463540999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
@@ -1428,7 +1438,7 @@
         <v>28575.04233541</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
@@ -1467,9 +1477,11 @@
         <v>13275.83623541</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>266</v>
+      </c>
       <c r="J28" t="n">
         <v>266</v>
       </c>
@@ -1506,9 +1518,11 @@
         <v>15856.98323541</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>265</v>
+      </c>
       <c r="J29" t="n">
         <v>266</v>
       </c>
@@ -1545,9 +1559,11 @@
         <v>15356.98323541</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>267</v>
+      </c>
       <c r="J30" t="n">
         <v>266</v>
       </c>
@@ -1584,9 +1600,11 @@
         <v>13195.00693541</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>265</v>
+      </c>
       <c r="J31" t="n">
         <v>266</v>
       </c>
@@ -1623,9 +1641,11 @@
         <v>13195.00693541</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>264</v>
+      </c>
       <c r="J32" t="n">
         <v>266</v>
       </c>
@@ -1662,9 +1682,11 @@
         <v>20204.95203541</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>264</v>
+      </c>
       <c r="J33" t="n">
         <v>266</v>
       </c>
@@ -1701,9 +1723,11 @@
         <v>9210.359335409999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>266</v>
+      </c>
       <c r="J34" t="n">
         <v>266</v>
       </c>
@@ -1740,9 +1764,11 @@
         <v>13658.68693541</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>263</v>
+      </c>
       <c r="J35" t="n">
         <v>266</v>
       </c>
@@ -1779,9 +1805,11 @@
         <v>13317.43053541</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>266</v>
+      </c>
       <c r="J36" t="n">
         <v>266</v>
       </c>
@@ -1820,7 +1848,9 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>263</v>
+      </c>
       <c r="J37" t="n">
         <v>266</v>
       </c>
@@ -1857,9 +1887,11 @@
         <v>8532.900135409998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>263</v>
+      </c>
       <c r="J38" t="n">
         <v>266</v>
       </c>
@@ -1896,9 +1928,11 @@
         <v>23109.45303541</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>260</v>
+      </c>
       <c r="J39" t="n">
         <v>266</v>
       </c>
@@ -1935,9 +1969,11 @@
         <v>29851.11263541</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>262</v>
+      </c>
       <c r="J40" t="n">
         <v>266</v>
       </c>
@@ -1974,9 +2010,11 @@
         <v>25029.46163541</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>265</v>
+      </c>
       <c r="J41" t="n">
         <v>266</v>
       </c>
@@ -2013,7 +2051,7 @@
         <v>26223.31973541</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>261</v>
@@ -2054,7 +2092,7 @@
         <v>41134.73523541</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>262</v>
@@ -2095,9 +2133,11 @@
         <v>41134.73523541</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>265</v>
+      </c>
       <c r="J44" t="n">
         <v>266</v>
       </c>
@@ -3967,7 +4007,7 @@
         <v>120822.16848122</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
@@ -3975,11 +4015,11 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>1.025075187969925</v>
       </c>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -4009,14 +4049,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>266</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4048,14 +4082,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>266</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>266</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +4148,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>266</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +4181,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>266</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +4214,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>266</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4243,14 +4247,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>266</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +4280,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>266</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4321,14 +4313,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>266</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4360,14 +4346,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>266</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +4379,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>266</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>266</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4477,14 +4445,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>266</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4516,14 +4478,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>266</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4555,14 +4511,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>266</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +4544,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>266</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +4577,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>266</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4672,14 +4610,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>266</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4711,14 +4643,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>266</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4750,14 +4676,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>266</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4709,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>266</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4828,14 +4742,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>266</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4867,14 +4775,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>266</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4808,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>266</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4841,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>266</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4874,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>266</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4907,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>266</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>266</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4973,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>266</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +5006,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>266</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5179,14 +5039,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>266</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5215,19 +5069,13 @@
         <v>118727.66831455</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>266</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>1.032593984962406</v>
+        <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
@@ -5287,7 +5135,7 @@
         <v>115571.92311455</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5320,7 +5168,7 @@
         <v>115571.92311455</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5353,7 +5201,7 @@
         <v>113772.94121455</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5386,7 +5234,7 @@
         <v>113773.94121455</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5419,7 +5267,7 @@
         <v>113600.94121455</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5452,7 +5300,7 @@
         <v>124335.80501455</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5518,7 +5366,7 @@
         <v>122421.75871455</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5551,7 +5399,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5584,7 +5432,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5617,7 +5465,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5650,7 +5498,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5683,7 +5531,7 @@
         <v>121573.36881455</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5716,7 +5564,7 @@
         <v>120016.93091455</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5749,7 +5597,7 @@
         <v>120016.93091455</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5782,7 +5630,7 @@
         <v>120017.93091455</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5815,7 +5663,7 @@
         <v>116193.93091455</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5848,7 +5696,7 @@
         <v>116602.93091455</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5881,7 +5729,7 @@
         <v>116990.93091455</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5914,7 +5762,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5947,7 +5795,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5980,7 +5828,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6013,7 +5861,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6046,7 +5894,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6079,7 +5927,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6112,7 +5960,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6442,7 +6290,7 @@
         <v>114695.22101455</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6475,7 +6323,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6508,7 +6356,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6541,7 +6389,7 @@
         <v>110746.58401455</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6574,7 +6422,7 @@
         <v>122328.86581455</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6607,7 +6455,7 @@
         <v>121733.31081455</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6640,7 +6488,7 @@
         <v>121441.44081455</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6673,7 +6521,7 @@
         <v>120655.86761455</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6706,7 +6554,7 @@
         <v>120656.86761455</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6739,7 +6587,7 @@
         <v>120365.86761455</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6772,7 +6620,7 @@
         <v>120366.86761455</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6805,7 +6653,7 @@
         <v>119380.86761455</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6838,7 +6686,7 @@
         <v>119390.86761455</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6871,7 +6719,7 @@
         <v>119264.37851455</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6904,7 +6752,7 @@
         <v>118249.21171455</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6937,7 +6785,7 @@
         <v>118249.21171455</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6970,7 +6818,7 @@
         <v>115838.45441455</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7003,7 +6851,7 @@
         <v>114073.73021455</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7036,7 +6884,7 @@
         <v>112073.73021455</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7069,7 +6917,7 @@
         <v>120758.05161455</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7102,7 +6950,7 @@
         <v>117207.28571455</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7135,7 +6983,7 @@
         <v>116207.28571455</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7168,7 +7016,7 @@
         <v>114052.75961455</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7201,7 +7049,7 @@
         <v>111879.99271455</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7234,7 +7082,7 @@
         <v>125640.14091455</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7267,7 +7115,7 @@
         <v>125641.14091455</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7300,7 +7148,7 @@
         <v>125641.14091455</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7333,7 +7181,7 @@
         <v>123178.82441455</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7366,7 +7214,7 @@
         <v>123907.82441455</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7399,7 +7247,7 @@
         <v>126715.07731455</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7432,7 +7280,7 @@
         <v>126515.07731455</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7465,7 +7313,7 @@
         <v>123249.07741455</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7498,7 +7346,7 @@
         <v>123249.07741455</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7531,7 +7379,7 @@
         <v>124895.07741455</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7564,7 +7412,7 @@
         <v>124331.16841455</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7597,7 +7445,7 @@
         <v>124331.16841455</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7630,7 +7478,7 @@
         <v>125168.16841455</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -9148,7 +8996,7 @@
         <v>85822.82501454998</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9181,7 +9029,7 @@
         <v>85822.82501454998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -10567,7 +10415,7 @@
         <v>104226.35091455</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10600,7 +10448,7 @@
         <v>104916.10341455</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10633,7 +10481,7 @@
         <v>104916.10341455</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10666,7 +10514,7 @@
         <v>104190.10341455</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10699,7 +10547,7 @@
         <v>104190.10341455</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10732,7 +10580,7 @@
         <v>102402.54971455</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10765,7 +10613,7 @@
         <v>85274.68261454998</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11227,7 +11075,7 @@
         <v>136852.68721455</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11260,7 +11108,7 @@
         <v>136853.68721455</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11359,7 +11207,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11392,7 +11240,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11425,7 +11273,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11458,7 +11306,7 @@
         <v>123223.64681455</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11491,7 +11339,7 @@
         <v>121871.35841455</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11524,7 +11372,7 @@
         <v>121871.35841455</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11557,7 +11405,7 @@
         <v>121915.35841455</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11590,7 +11438,7 @@
         <v>113061.68361455</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11623,7 +11471,7 @@
         <v>113445.68361455</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11656,7 +11504,7 @@
         <v>85813.86061454998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11689,7 +11537,7 @@
         <v>86270.86061454998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11722,7 +11570,7 @@
         <v>86178.15431454997</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11755,7 +11603,7 @@
         <v>87383.63521454997</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11788,7 +11636,7 @@
         <v>78717.56531454997</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11821,7 +11669,7 @@
         <v>81420.52311454997</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11854,7 +11702,7 @@
         <v>78185.91001454997</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11887,7 +11735,7 @@
         <v>78186.91001454997</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11920,7 +11768,7 @@
         <v>78181.91001454997</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11953,7 +11801,7 @@
         <v>78481.91001454997</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11986,7 +11834,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12019,7 +11867,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12052,7 +11900,7 @@
         <v>78472.56981454996</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12085,7 +11933,7 @@
         <v>86263.68721454997</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12118,7 +11966,7 @@
         <v>85046.68731454997</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12349,7 +12197,7 @@
         <v>74141.60231454996</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12382,7 +12230,7 @@
         <v>75558.32651454996</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12415,7 +12263,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12448,7 +12296,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12481,7 +12329,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12514,7 +12362,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12547,7 +12395,7 @@
         <v>70887.93821454995</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12580,7 +12428,7 @@
         <v>70887.93821454995</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12613,7 +12461,7 @@
         <v>72243.72231454996</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12646,7 +12494,7 @@
         <v>72243.72231454996</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12679,7 +12527,7 @@
         <v>72243.72231454996</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12745,7 +12593,7 @@
         <v>81307.79859042996</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13108,7 +12956,7 @@
         <v>63834.87249042996</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13141,7 +12989,7 @@
         <v>58904.07779042996</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13207,7 +13055,7 @@
         <v>58904.07779042996</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13240,7 +13088,7 @@
         <v>53584.63039042996</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -18058,11 +17906,17 @@
         <v>-18774.68630957003</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>266</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18091,11 +17945,17 @@
         <v>19781.15819042997</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>264</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18124,11 +17984,17 @@
         <v>19676.53529042997</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>267</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18157,11 +18023,17 @@
         <v>23173.52279042997</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>260</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18190,11 +18062,17 @@
         <v>23173.52279042997</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>265</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18227,7 +18105,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18256,11 +18138,17 @@
         <v>16466.75629042997</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>260</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18289,11 +18177,17 @@
         <v>16065.95209042997</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>260</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18326,7 +18220,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18355,11 +18253,17 @@
         <v>12711.72039042997</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>254</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18388,11 +18292,17 @@
         <v>17498.17989042997</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>256</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18421,11 +18331,17 @@
         <v>14936.00299042997</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>262</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18454,11 +18370,17 @@
         <v>10733.48469042997</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>258</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18487,11 +18409,17 @@
         <v>10051.61439042997</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>257</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18520,11 +18448,17 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>256</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18553,11 +18487,17 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>260</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18586,11 +18526,17 @@
         <v>10708.90739042997</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>260</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18619,11 +18565,17 @@
         <v>10708.90739042997</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>258</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18652,11 +18604,17 @@
         <v>66.10829042996738</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>258</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18685,17 +18643,23 @@
         <v>6424.903190429967</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>255</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
       <c r="M532" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-26 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>28791.02883541</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>32127.77113541</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>261</v>
-      </c>
-      <c r="J3" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>27011.69073541</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>264</v>
-      </c>
-      <c r="J4" t="n">
-        <v>261</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>27011.69073541</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>262</v>
-      </c>
-      <c r="J5" t="n">
-        <v>261</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>262</v>
-      </c>
-      <c r="J6" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>265</v>
-      </c>
-      <c r="J7" t="n">
-        <v>262</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>35586.31143541</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>265</v>
-      </c>
-      <c r="J8" t="n">
-        <v>262</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>35586.31143541</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>266</v>
-      </c>
-      <c r="J9" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>35586.31143541</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>266</v>
-      </c>
-      <c r="J10" t="n">
-        <v>266</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>35586.31143541</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>266</v>
-      </c>
-      <c r="J11" t="n">
-        <v>266</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>40207.94233541</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>266</v>
-      </c>
-      <c r="J12" t="n">
-        <v>266</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>53464.01903541</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>267</v>
-      </c>
-      <c r="J13" t="n">
-        <v>266</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>60219.46503541</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>270</v>
-      </c>
-      <c r="J14" t="n">
-        <v>266</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>64243.32908813</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>272</v>
-      </c>
-      <c r="J15" t="n">
-        <v>266</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,17 +913,11 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>266</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1044,17 +946,11 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>266</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1083,17 +979,11 @@
         <v>74461.20683540999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>266</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1122,17 +1012,11 @@
         <v>56882.57553540999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>266</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1161,17 +1045,11 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>266</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1200,19 +1078,11 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>271</v>
-      </c>
-      <c r="J21" t="n">
-        <v>266</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1241,19 +1111,11 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>271</v>
-      </c>
-      <c r="J22" t="n">
-        <v>266</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1282,17 +1144,11 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>266</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1321,17 +1177,11 @@
         <v>33414.02463540999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>266</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1360,17 +1210,11 @@
         <v>33415.02463540999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>266</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1399,17 +1243,11 @@
         <v>33326.48103541</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>266</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1438,17 +1276,11 @@
         <v>28575.04233541</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>266</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1477,19 +1309,11 @@
         <v>13275.83623541</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>266</v>
-      </c>
-      <c r="J28" t="n">
-        <v>266</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1518,19 +1342,11 @@
         <v>15856.98323541</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>265</v>
-      </c>
-      <c r="J29" t="n">
-        <v>266</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1559,19 +1375,11 @@
         <v>15356.98323541</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>267</v>
-      </c>
-      <c r="J30" t="n">
-        <v>266</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1600,19 +1408,11 @@
         <v>13195.00693541</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>265</v>
-      </c>
-      <c r="J31" t="n">
-        <v>266</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1641,19 +1441,11 @@
         <v>13195.00693541</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>264</v>
-      </c>
-      <c r="J32" t="n">
-        <v>266</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1682,19 +1474,11 @@
         <v>20204.95203541</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>264</v>
-      </c>
-      <c r="J33" t="n">
-        <v>266</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1723,19 +1507,11 @@
         <v>9210.359335409999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>266</v>
-      </c>
-      <c r="J34" t="n">
-        <v>266</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1764,19 +1540,11 @@
         <v>13658.68693541</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>263</v>
-      </c>
-      <c r="J35" t="n">
-        <v>266</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1805,19 +1573,11 @@
         <v>13317.43053541</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>266</v>
-      </c>
-      <c r="J36" t="n">
-        <v>266</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1846,19 +1606,11 @@
         <v>13317.43053541</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>263</v>
-      </c>
-      <c r="J37" t="n">
-        <v>266</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1887,19 +1639,11 @@
         <v>8532.900135409998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>263</v>
-      </c>
-      <c r="J38" t="n">
-        <v>266</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1928,19 +1672,11 @@
         <v>23109.45303541</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>260</v>
-      </c>
-      <c r="J39" t="n">
-        <v>266</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1969,19 +1705,11 @@
         <v>29851.11263541</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>262</v>
-      </c>
-      <c r="J40" t="n">
-        <v>266</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2010,19 +1738,11 @@
         <v>25029.46163541</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>265</v>
-      </c>
-      <c r="J41" t="n">
-        <v>266</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2051,19 +1771,11 @@
         <v>26223.31973541</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>261</v>
-      </c>
-      <c r="J42" t="n">
-        <v>266</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2092,19 +1804,11 @@
         <v>41134.73523541</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>262</v>
-      </c>
-      <c r="J43" t="n">
-        <v>266</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2133,19 +1837,11 @@
         <v>41134.73523541</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>265</v>
-      </c>
-      <c r="J44" t="n">
-        <v>266</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2174,17 +1870,11 @@
         <v>41135.73523541</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>266</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2213,17 +1903,11 @@
         <v>41135.73523541</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>266</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2252,17 +1936,11 @@
         <v>40654.48523541</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>266</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2291,17 +1969,11 @@
         <v>40654.48523541</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>266</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2330,17 +2002,11 @@
         <v>40654.48523541</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>266</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2372,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>266</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>266</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2450,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>266</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2486,17 +2134,11 @@
         <v>43085.23523541</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>266</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>266</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>266</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2606,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>266</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2645,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>266</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2684,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>266</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>266</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2762,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>266</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2801,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>266</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2840,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>266</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2879,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>266</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>266</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>266</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2996,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>266</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3035,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>266</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3074,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>266</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3113,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>266</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>266</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>266</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>266</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>266</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>266</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>266</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>266</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>266</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3464,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>266</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>266</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>266</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3581,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>266</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>266</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>266</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3698,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>266</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>266</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>266</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>266</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>266</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>266</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>266</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>266</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4007,19 +3421,13 @@
         <v>120822.16848122</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>266</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>1.025075187969925</v>
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
     </row>
@@ -4310,7 +3718,7 @@
         <v>111941.99228122</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4343,7 +3751,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4376,7 +3784,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5135,7 +4543,7 @@
         <v>115571.92311455</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5201,7 +4609,7 @@
         <v>113772.94121455</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5234,7 +4642,7 @@
         <v>113773.94121455</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5366,7 +4774,7 @@
         <v>122421.75871455</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5399,7 +4807,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5432,7 +4840,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5465,7 +4873,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5498,7 +4906,7 @@
         <v>122078.16871455</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5531,7 +4939,7 @@
         <v>121573.36881455</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5564,7 +4972,7 @@
         <v>120016.93091455</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5597,7 +5005,7 @@
         <v>120016.93091455</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5630,7 +5038,7 @@
         <v>120017.93091455</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5663,7 +5071,7 @@
         <v>116193.93091455</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5696,7 +5104,7 @@
         <v>116602.93091455</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5729,7 +5137,7 @@
         <v>116990.93091455</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5762,7 +5170,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5795,7 +5203,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5828,7 +5236,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5861,7 +5269,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5894,7 +5302,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5927,7 +5335,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5960,7 +5368,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6290,7 +5698,7 @@
         <v>114695.22101455</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6323,7 +5731,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6356,7 +5764,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6389,7 +5797,7 @@
         <v>110746.58401455</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6422,7 +5830,7 @@
         <v>122328.86581455</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6455,7 +5863,7 @@
         <v>121733.31081455</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6488,7 +5896,7 @@
         <v>121441.44081455</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6521,7 +5929,7 @@
         <v>120655.86761455</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6554,7 +5962,7 @@
         <v>120656.86761455</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6587,7 +5995,7 @@
         <v>120365.86761455</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6620,7 +6028,7 @@
         <v>120366.86761455</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6653,7 +6061,7 @@
         <v>119380.86761455</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6686,7 +6094,7 @@
         <v>119390.86761455</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6719,7 +6127,7 @@
         <v>119264.37851455</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6752,7 +6160,7 @@
         <v>118249.21171455</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6785,7 +6193,7 @@
         <v>118249.21171455</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6818,7 +6226,7 @@
         <v>115838.45441455</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6851,7 +6259,7 @@
         <v>114073.73021455</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6884,7 +6292,7 @@
         <v>112073.73021455</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6917,7 +6325,7 @@
         <v>120758.05161455</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6950,7 +6358,7 @@
         <v>117207.28571455</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6983,7 +6391,7 @@
         <v>116207.28571455</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7016,7 +6424,7 @@
         <v>114052.75961455</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7049,7 +6457,7 @@
         <v>111879.99271455</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7082,7 +6490,7 @@
         <v>125640.14091455</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7115,7 +6523,7 @@
         <v>125641.14091455</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7148,7 +6556,7 @@
         <v>125641.14091455</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7181,7 +6589,7 @@
         <v>123178.82441455</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7214,7 +6622,7 @@
         <v>123907.82441455</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7247,7 +6655,7 @@
         <v>126715.07731455</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7280,7 +6688,7 @@
         <v>126515.07731455</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7313,7 +6721,7 @@
         <v>123249.07741455</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7346,7 +6754,7 @@
         <v>123249.07741455</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7379,7 +6787,7 @@
         <v>124895.07741455</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7412,7 +6820,7 @@
         <v>124331.16841455</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7445,7 +6853,7 @@
         <v>124331.16841455</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7478,7 +6886,7 @@
         <v>125168.16841455</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8996,7 +8404,7 @@
         <v>85822.82501454998</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9029,7 +8437,7 @@
         <v>85822.82501454998</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -11075,7 +10483,7 @@
         <v>136852.68721455</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11108,7 +10516,7 @@
         <v>136853.68721455</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11207,7 +10615,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11240,7 +10648,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11273,7 +10681,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11306,7 +10714,7 @@
         <v>123223.64681455</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11339,7 +10747,7 @@
         <v>121871.35841455</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11372,7 +10780,7 @@
         <v>121871.35841455</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11405,7 +10813,7 @@
         <v>121915.35841455</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11438,7 +10846,7 @@
         <v>113061.68361455</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11471,7 +10879,7 @@
         <v>113445.68361455</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11504,7 +10912,7 @@
         <v>85813.86061454998</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11537,7 +10945,7 @@
         <v>86270.86061454998</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11570,7 +10978,7 @@
         <v>86178.15431454997</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11603,7 +11011,7 @@
         <v>87383.63521454997</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11636,7 +11044,7 @@
         <v>78717.56531454997</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11669,7 +11077,7 @@
         <v>81420.52311454997</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11702,7 +11110,7 @@
         <v>78185.91001454997</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11735,7 +11143,7 @@
         <v>78186.91001454997</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12197,7 +11605,7 @@
         <v>74141.60231454996</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12230,7 +11638,7 @@
         <v>75558.32651454996</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12263,7 +11671,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12296,7 +11704,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12329,7 +11737,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12362,7 +11770,7 @@
         <v>75257.32651454996</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12395,7 +11803,7 @@
         <v>70887.93821454995</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12428,7 +11836,7 @@
         <v>70887.93821454995</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12461,7 +11869,7 @@
         <v>72243.72231454996</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12494,7 +11902,7 @@
         <v>72243.72231454996</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12527,7 +11935,7 @@
         <v>72243.72231454996</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12593,7 +12001,7 @@
         <v>81307.79859042996</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12956,7 +12364,7 @@
         <v>63834.87249042996</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12989,7 +12397,7 @@
         <v>58904.07779042996</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13055,7 +12463,7 @@
         <v>58904.07779042996</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13088,7 +12496,7 @@
         <v>53584.63039042996</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -17906,17 +17314,11 @@
         <v>-18774.68630957003</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17945,17 +17347,11 @@
         <v>19781.15819042997</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17984,17 +17380,11 @@
         <v>19676.53529042997</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18023,17 +17413,11 @@
         <v>23173.52279042997</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18062,17 +17446,11 @@
         <v>23173.52279042997</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18105,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18138,17 +17512,11 @@
         <v>16466.75629042997</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18177,17 +17545,11 @@
         <v>16065.95209042997</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18220,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18253,17 +17611,11 @@
         <v>12711.72039042997</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18292,17 +17644,11 @@
         <v>17498.17989042997</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18331,17 +17677,11 @@
         <v>14936.00299042997</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18378,7 +17718,7 @@
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L525" t="n">
@@ -18526,11 +17866,9 @@
         <v>10708.90739042997</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18660,6 +17998,6 @@
       <c r="M532" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-26 BackTest PIVX.xlsx
@@ -451,7 +451,7 @@
         <v>28791.02883541</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>32127.77113541</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>261</v>
+      </c>
+      <c r="J3" t="n">
+        <v>261</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>27011.69073541</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>264</v>
+      </c>
+      <c r="J4" t="n">
+        <v>261</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>27011.69073541</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>262</v>
+      </c>
+      <c r="J5" t="n">
+        <v>261</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>262</v>
+      </c>
+      <c r="J6" t="n">
+        <v>262</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>32313.46603541001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>265</v>
+      </c>
+      <c r="J7" t="n">
+        <v>262</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>262</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -847,7 +885,7 @@
         <v>60219.46503541</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +918,7 @@
         <v>64243.32908813</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +951,7 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +984,7 @@
         <v>77506.75103540999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +1017,7 @@
         <v>74461.20683540999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1050,7 @@
         <v>56882.57553540999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1083,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1116,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1149,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1182,7 @@
         <v>55514.93833540999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1215,7 @@
         <v>33414.02463540999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1248,7 @@
         <v>33415.02463540999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1281,7 @@
         <v>33326.48103541</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1314,7 @@
         <v>28575.04233541</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1347,7 @@
         <v>13275.83623541</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1380,7 @@
         <v>15856.98323541</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1413,7 @@
         <v>15356.98323541</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1446,7 @@
         <v>13195.00693541</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1479,7 @@
         <v>13195.00693541</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1870,7 +1908,7 @@
         <v>41135.73523541</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1941,7 @@
         <v>41135.73523541</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1974,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2007,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2040,7 @@
         <v>40654.48523541</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2134,7 +2172,7 @@
         <v>43085.23523541</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3091,7 +3129,7 @@
         <v>131565.31903285</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3261,7 @@
         <v>127216.37903285</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3294,7 @@
         <v>131467.11588122</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3718,7 +3756,7 @@
         <v>111941.99228122</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3789,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3822,7 @@
         <v>111001.40378122</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5203,7 +5241,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5274,7 @@
         <v>116991.93091455</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5307,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5340,7 @@
         <v>116992.93091455</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5373,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5406,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5439,7 @@
         <v>116993.93091455</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5472,7 @@
         <v>120958.51401455</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5505,7 @@
         <v>121258.51401455</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5538,7 @@
         <v>118258.12711455</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5571,7 @@
         <v>118259.12711455</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5604,7 @@
         <v>117125.28241455</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5637,7 @@
         <v>114854.85801455</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5703,7 @@
         <v>114694.22101455</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5769,7 @@
         <v>114333.58401455</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6028,7 +6066,7 @@
         <v>120366.86761455</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6099,7 @@
         <v>119380.86761455</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -9922,7 +9960,7 @@
         <v>104190.10341455</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10351,7 +10389,7 @@
         <v>149324.92741455</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10422,7 @@
         <v>144318.04601455</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10483,7 +10521,7 @@
         <v>136852.68721455</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10582,7 +10620,7 @@
         <v>121937.68721455</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11176,7 +11214,7 @@
         <v>78181.91001454997</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11247,7 @@
         <v>78481.91001454997</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11280,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11313,7 @@
         <v>76881.91001454997</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11346,7 @@
         <v>78472.56981454996</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11379,7 @@
         <v>86263.68721454997</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11412,7 @@
         <v>85046.68731454997</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -17710,17 +17748,11 @@
         <v>10733.48469042997</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17749,17 +17781,11 @@
         <v>10051.61439042997</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17788,17 +17814,11 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17827,17 +17847,11 @@
         <v>10987.90739042997</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17870,11 +17884,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17903,17 +17913,11 @@
         <v>10708.90739042997</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17942,17 +17946,11 @@
         <v>66.10829042996738</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17981,17 +17979,11 @@
         <v>6424.903190429967</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
